--- a/natmiOut/OldD2/LR-pairs_lrc2p/Robo1-Robo1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Robo1-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3525361129076</v>
+        <v>0.3526105</v>
       </c>
       <c r="H2">
-        <v>0.3525361129076</v>
+        <v>0.705221</v>
       </c>
       <c r="I2">
-        <v>0.02266695876843876</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="J2">
-        <v>0.02266695876843876</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3525361129076</v>
+        <v>0.3526105</v>
       </c>
       <c r="N2">
-        <v>0.3525361129076</v>
+        <v>0.705221</v>
       </c>
       <c r="O2">
-        <v>0.02266695876843876</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="P2">
-        <v>0.02266695876843876</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="Q2">
-        <v>0.1242817109040001</v>
+        <v>0.12433416471025</v>
       </c>
       <c r="R2">
-        <v>0.1242817109040001</v>
+        <v>0.497336658841</v>
       </c>
       <c r="S2">
-        <v>0.0005137910198101027</v>
+        <v>0.0003423605076394669</v>
       </c>
       <c r="T2">
-        <v>0.0005137910198101027</v>
+        <v>0.0001982171115986793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3525361129076</v>
+        <v>0.3526105</v>
       </c>
       <c r="H3">
-        <v>0.3525361129076</v>
+        <v>0.705221</v>
       </c>
       <c r="I3">
-        <v>0.02266695876843876</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="J3">
-        <v>0.02266695876843876</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.5535625572773</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="N3">
-        <v>10.5535625572773</v>
+        <v>34.387136</v>
       </c>
       <c r="O3">
-        <v>0.6785607448069941</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="P3">
-        <v>0.6785607448069941</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="Q3">
-        <v>3.72051192126973</v>
+        <v>4.041755072842666</v>
       </c>
       <c r="R3">
-        <v>3.72051192126973</v>
+        <v>24.250530437056</v>
       </c>
       <c r="S3">
-        <v>0.01538090842442123</v>
+        <v>0.01112918015508839</v>
       </c>
       <c r="T3">
-        <v>0.01538090842442123</v>
+        <v>0.009665223772506721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3525361129076</v>
+        <v>0.3526105</v>
       </c>
       <c r="H4">
-        <v>0.3525361129076</v>
+        <v>0.705221</v>
       </c>
       <c r="I4">
-        <v>0.02266695876843876</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="J4">
-        <v>0.02266695876843876</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.31979691957588</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N4">
-        <v>0.31979691957588</v>
+        <v>0.154567</v>
       </c>
       <c r="O4">
-        <v>0.02056193202595423</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="P4">
-        <v>0.02056193202595423</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="Q4">
-        <v>0.1127399629471051</v>
+        <v>0.01816731571783333</v>
       </c>
       <c r="R4">
-        <v>0.1127399629471051</v>
+        <v>0.109003894307</v>
       </c>
       <c r="S4">
-        <v>0.000466076465431745</v>
+        <v>5.00246368011441E-05</v>
       </c>
       <c r="T4">
-        <v>0.000466076465431745</v>
+        <v>4.344428808624965E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +711,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3525361129076</v>
+        <v>0.3526105</v>
       </c>
       <c r="H5">
-        <v>0.3525361129076</v>
+        <v>0.705221</v>
       </c>
       <c r="I5">
-        <v>0.02266695876843876</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="J5">
-        <v>0.02266695876843876</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.3269677876795</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N5">
-        <v>4.3269677876795</v>
+        <v>0.143093</v>
       </c>
       <c r="O5">
-        <v>0.2782103643986128</v>
+        <v>0.002502901303622343</v>
       </c>
       <c r="P5">
-        <v>0.2782103643986128</v>
+        <v>0.002856694011683153</v>
       </c>
       <c r="Q5">
-        <v>1.525412404544928</v>
+        <v>0.01681869809216667</v>
       </c>
       <c r="R5">
-        <v>1.525412404544928</v>
+        <v>0.100912188553</v>
       </c>
       <c r="S5">
-        <v>0.006306182858775679</v>
+        <v>4.631114891138544E-05</v>
       </c>
       <c r="T5">
-        <v>0.006306182858775679</v>
+        <v>4.021928040995634E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.5535625572773</v>
+        <v>0.3526105</v>
       </c>
       <c r="H6">
-        <v>10.5535625572773</v>
+        <v>0.705221</v>
       </c>
       <c r="I6">
-        <v>0.6785607448069941</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="J6">
-        <v>0.6785607448069941</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3525361129076</v>
+        <v>0.414919</v>
       </c>
       <c r="N6">
-        <v>0.3525361129076</v>
+        <v>1.244757</v>
       </c>
       <c r="O6">
-        <v>0.02266695876843876</v>
+        <v>0.02177258089489379</v>
       </c>
       <c r="P6">
-        <v>0.02266695876843876</v>
+        <v>0.02485020139280528</v>
       </c>
       <c r="Q6">
-        <v>3.72051192126973</v>
+        <v>0.1463047960495</v>
       </c>
       <c r="R6">
-        <v>3.72051192126973</v>
+        <v>0.8778287762970001</v>
       </c>
       <c r="S6">
-        <v>0.01538090842442123</v>
+        <v>0.0004028577693212765</v>
       </c>
       <c r="T6">
-        <v>0.01538090842442123</v>
+        <v>0.0003498649886804807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.5535625572773</v>
+        <v>0.3526105</v>
       </c>
       <c r="H7">
-        <v>10.5535625572773</v>
+        <v>0.705221</v>
       </c>
       <c r="I7">
-        <v>0.6785607448069941</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="J7">
-        <v>0.6785607448069941</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.5535625572773</v>
+        <v>6.7278225</v>
       </c>
       <c r="N7">
-        <v>10.5535625572773</v>
+        <v>13.455645</v>
       </c>
       <c r="O7">
-        <v>0.6785607448069941</v>
+        <v>0.3530377245383715</v>
       </c>
       <c r="P7">
-        <v>0.6785607448069941</v>
+        <v>0.2686271200885743</v>
       </c>
       <c r="Q7">
-        <v>111.3776826503654</v>
+        <v>2.37230085563625</v>
       </c>
       <c r="R7">
-        <v>111.3776826503654</v>
+        <v>9.489203422545</v>
       </c>
       <c r="S7">
-        <v>0.4604446843930226</v>
+        <v>0.006532252234145685</v>
       </c>
       <c r="T7">
-        <v>0.4604446843930226</v>
+        <v>0.003781990449231108</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.5535625572773</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="H8">
-        <v>10.5535625572773</v>
+        <v>34.387136</v>
       </c>
       <c r="I8">
-        <v>0.6785607448069941</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="J8">
-        <v>0.6785607448069941</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.31979691957588</v>
+        <v>0.3526105</v>
       </c>
       <c r="N8">
-        <v>0.31979691957588</v>
+        <v>0.705221</v>
       </c>
       <c r="O8">
-        <v>0.02056193202595423</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="P8">
-        <v>0.02056193202595423</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="Q8">
-        <v>3.374996796368627</v>
+        <v>4.041755072842666</v>
       </c>
       <c r="R8">
-        <v>3.374996796368627</v>
+        <v>24.250530437056</v>
       </c>
       <c r="S8">
-        <v>0.01395251991020229</v>
+        <v>0.01112918015508839</v>
       </c>
       <c r="T8">
-        <v>0.01395251991020229</v>
+        <v>0.009665223772506721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,320 +959,320 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.5535625572773</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="H9">
-        <v>10.5535625572773</v>
+        <v>34.387136</v>
       </c>
       <c r="I9">
-        <v>0.6785607448069941</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="J9">
-        <v>0.6785607448069941</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.3269677876795</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="N9">
-        <v>4.3269677876795</v>
+        <v>34.387136</v>
       </c>
       <c r="O9">
-        <v>0.2782103643986128</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="P9">
-        <v>0.2782103643986128</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="Q9">
-        <v>45.66492523059937</v>
+        <v>131.3861246980551</v>
       </c>
       <c r="R9">
-        <v>45.66492523059937</v>
+        <v>1182.475122282496</v>
       </c>
       <c r="S9">
-        <v>0.188782632079348</v>
+        <v>0.3617784416152531</v>
       </c>
       <c r="T9">
-        <v>0.188782632079348</v>
+        <v>0.4712839866306047</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.31979691957588</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="H10">
-        <v>0.31979691957588</v>
+        <v>34.387136</v>
       </c>
       <c r="I10">
-        <v>0.02056193202595423</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="J10">
-        <v>0.02056193202595423</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3525361129076</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N10">
-        <v>0.3525361129076</v>
+        <v>0.154567</v>
       </c>
       <c r="O10">
-        <v>0.02266695876843876</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="P10">
-        <v>0.02266695876843876</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="Q10">
-        <v>0.1127399629471051</v>
+        <v>0.5905684944568889</v>
       </c>
       <c r="R10">
-        <v>0.1127399629471051</v>
+        <v>5.315116450112</v>
       </c>
       <c r="S10">
-        <v>0.000466076465431745</v>
+        <v>0.00162616067779372</v>
       </c>
       <c r="T10">
-        <v>0.000466076465431745</v>
+        <v>0.002118377987673434</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.31979691957588</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="H11">
-        <v>0.31979691957588</v>
+        <v>34.387136</v>
       </c>
       <c r="I11">
-        <v>0.02056193202595423</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="J11">
-        <v>0.02056193202595423</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>10.5535625572773</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N11">
-        <v>10.5535625572773</v>
+        <v>0.143093</v>
       </c>
       <c r="O11">
-        <v>0.6785607448069941</v>
+        <v>0.002502901303622343</v>
       </c>
       <c r="P11">
-        <v>0.6785607448069941</v>
+        <v>0.002856694011683153</v>
       </c>
       <c r="Q11">
-        <v>3.374996796368627</v>
+        <v>0.5467287168497778</v>
       </c>
       <c r="R11">
-        <v>3.374996796368627</v>
+        <v>4.920558451648</v>
       </c>
       <c r="S11">
-        <v>0.01395251991020229</v>
+        <v>0.001505445598785878</v>
       </c>
       <c r="T11">
-        <v>0.01395251991020229</v>
+        <v>0.001961124052289005</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.31979691957588</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="H12">
-        <v>0.31979691957588</v>
+        <v>34.387136</v>
       </c>
       <c r="I12">
-        <v>0.02056193202595423</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="J12">
-        <v>0.02056193202595423</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.31979691957588</v>
+        <v>0.414919</v>
       </c>
       <c r="N12">
-        <v>0.31979691957588</v>
+        <v>1.244757</v>
       </c>
       <c r="O12">
-        <v>0.02056193202595423</v>
+        <v>0.02177258089489379</v>
       </c>
       <c r="P12">
-        <v>0.02056193202595423</v>
+        <v>0.02485020139280528</v>
       </c>
       <c r="Q12">
-        <v>0.1022700697702219</v>
+        <v>4.755958693994667</v>
       </c>
       <c r="R12">
-        <v>0.1022700697702219</v>
+        <v>42.803628245952</v>
       </c>
       <c r="S12">
-        <v>0.0004227930486399624</v>
+        <v>0.0130957765034482</v>
       </c>
       <c r="T12">
-        <v>0.0004227930486399624</v>
+        <v>0.01705969468775625</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.31979691957588</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="H13">
-        <v>0.31979691957588</v>
+        <v>34.387136</v>
       </c>
       <c r="I13">
-        <v>0.02056193202595423</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="J13">
-        <v>0.02056193202595423</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.3269677876795</v>
+        <v>6.7278225</v>
       </c>
       <c r="N13">
-        <v>4.3269677876795</v>
+        <v>13.455645</v>
       </c>
       <c r="O13">
-        <v>0.2782103643986128</v>
+        <v>0.3530377245383715</v>
       </c>
       <c r="P13">
-        <v>0.2782103643986128</v>
+        <v>0.2686271200885743</v>
       </c>
       <c r="Q13">
-        <v>1.383750969603964</v>
+        <v>77.11684909712</v>
       </c>
       <c r="R13">
-        <v>1.383750969603964</v>
+        <v>462.70109458272</v>
       </c>
       <c r="S13">
-        <v>0.005720542601680234</v>
+        <v>0.2123452042805225</v>
       </c>
       <c r="T13">
-        <v>0.005720542601680234</v>
+        <v>0.1844128577118538</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1275,60 +1281,60 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.3269677876795</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="H14">
-        <v>4.3269677876795</v>
+        <v>0.154567</v>
       </c>
       <c r="I14">
-        <v>0.2782103643986128</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="J14">
-        <v>0.2782103643986128</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3525361129076</v>
+        <v>0.3526105</v>
       </c>
       <c r="N14">
-        <v>0.3525361129076</v>
+        <v>0.705221</v>
       </c>
       <c r="O14">
-        <v>0.02266695876843876</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="P14">
-        <v>0.02266695876843876</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="Q14">
-        <v>1.525412404544928</v>
+        <v>0.01816731571783333</v>
       </c>
       <c r="R14">
-        <v>1.525412404544928</v>
+        <v>0.109003894307</v>
       </c>
       <c r="S14">
-        <v>0.006306182858775679</v>
+        <v>5.00246368011441E-05</v>
       </c>
       <c r="T14">
-        <v>0.006306182858775679</v>
+        <v>4.344428808624965E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1337,60 +1343,60 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.3269677876795</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="H15">
-        <v>4.3269677876795</v>
+        <v>0.154567</v>
       </c>
       <c r="I15">
-        <v>0.2782103643986128</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="J15">
-        <v>0.2782103643986128</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.5535625572773</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="N15">
-        <v>10.5535625572773</v>
+        <v>34.387136</v>
       </c>
       <c r="O15">
-        <v>0.6785607448069941</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="P15">
-        <v>0.6785607448069941</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="Q15">
-        <v>45.66492523059937</v>
+        <v>0.5905684944568889</v>
       </c>
       <c r="R15">
-        <v>45.66492523059937</v>
+        <v>5.315116450112</v>
       </c>
       <c r="S15">
-        <v>0.188782632079348</v>
+        <v>0.00162616067779372</v>
       </c>
       <c r="T15">
-        <v>0.188782632079348</v>
+        <v>0.002118377987673434</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1399,60 +1405,60 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>4.3269677876795</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="H16">
-        <v>4.3269677876795</v>
+        <v>0.154567</v>
       </c>
       <c r="I16">
-        <v>0.2782103643986128</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="J16">
-        <v>0.2782103643986128</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.31979691957588</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N16">
-        <v>0.31979691957588</v>
+        <v>0.154567</v>
       </c>
       <c r="O16">
-        <v>0.02056193202595423</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="P16">
-        <v>0.02056193202595423</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="Q16">
-        <v>1.383750969603964</v>
+        <v>0.002654550832111112</v>
       </c>
       <c r="R16">
-        <v>1.383750969603964</v>
+        <v>0.023890957489</v>
       </c>
       <c r="S16">
-        <v>0.005720542601680234</v>
+        <v>7.309442039155046E-06</v>
       </c>
       <c r="T16">
-        <v>0.005720542601680234</v>
+        <v>9.521913381234181E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1461,49 +1467,1289 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>4.3269677876795</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="H17">
-        <v>4.3269677876795</v>
+        <v>0.154567</v>
       </c>
       <c r="I17">
-        <v>0.2782103643986128</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="J17">
-        <v>0.2782103643986128</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>4.3269677876795</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N17">
-        <v>4.3269677876795</v>
+        <v>0.143093</v>
       </c>
       <c r="O17">
-        <v>0.2782103643986128</v>
+        <v>0.002502901303622343</v>
       </c>
       <c r="P17">
-        <v>0.2782103643986128</v>
+        <v>0.002856694011683153</v>
       </c>
       <c r="Q17">
-        <v>18.72265023561603</v>
+        <v>0.002457495081222222</v>
       </c>
       <c r="R17">
-        <v>18.72265023561603</v>
+        <v>0.022117455731</v>
       </c>
       <c r="S17">
-        <v>0.07740100685880892</v>
+        <v>6.766838909397304E-06</v>
       </c>
       <c r="T17">
-        <v>0.07740100685880892</v>
+        <v>8.815071467136858E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.154567</v>
+      </c>
+      <c r="I18">
+        <v>0.002703597980313465</v>
+      </c>
+      <c r="J18">
+        <v>0.003085759773740364</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.414919</v>
+      </c>
+      <c r="N18">
+        <v>1.244757</v>
+      </c>
+      <c r="O18">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="P18">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="Q18">
+        <v>0.02137759502433334</v>
+      </c>
+      <c r="R18">
+        <v>0.192398355219</v>
+      </c>
+      <c r="S18">
+        <v>5.886430573364637E-05</v>
+      </c>
+      <c r="T18">
+        <v>7.668175182726531E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.154567</v>
+      </c>
+      <c r="I19">
+        <v>0.002703597980313465</v>
+      </c>
+      <c r="J19">
+        <v>0.003085759773740364</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.7278225</v>
+      </c>
+      <c r="N19">
+        <v>13.455645</v>
+      </c>
+      <c r="O19">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="P19">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="Q19">
+        <v>0.3466331134525</v>
+      </c>
+      <c r="R19">
+        <v>2.079798680715</v>
+      </c>
+      <c r="S19">
+        <v>0.0009544720790364024</v>
+      </c>
+      <c r="T19">
+        <v>0.0008289187613050445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.143093</v>
+      </c>
+      <c r="I20">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="J20">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3526105</v>
+      </c>
+      <c r="N20">
+        <v>0.705221</v>
+      </c>
+      <c r="O20">
+        <v>0.01850298645190735</v>
+      </c>
+      <c r="P20">
+        <v>0.01407895989051319</v>
+      </c>
+      <c r="Q20">
+        <v>0.01681869809216667</v>
+      </c>
+      <c r="R20">
+        <v>0.100912188553</v>
+      </c>
+      <c r="S20">
+        <v>4.631114891138544E-05</v>
+      </c>
+      <c r="T20">
+        <v>4.021928040995634E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.143093</v>
+      </c>
+      <c r="I21">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="J21">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.46237866666667</v>
+      </c>
+      <c r="N21">
+        <v>34.387136</v>
+      </c>
+      <c r="O21">
+        <v>0.6014802088308917</v>
+      </c>
+      <c r="P21">
+        <v>0.6865012648426838</v>
+      </c>
+      <c r="Q21">
+        <v>0.5467287168497778</v>
+      </c>
+      <c r="R21">
+        <v>4.920558451648</v>
+      </c>
+      <c r="S21">
+        <v>0.001505445598785878</v>
+      </c>
+      <c r="T21">
+        <v>0.001961124052289005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.143093</v>
+      </c>
+      <c r="I22">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="J22">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.154567</v>
+      </c>
+      <c r="O22">
+        <v>0.002703597980313465</v>
+      </c>
+      <c r="P22">
+        <v>0.003085759773740364</v>
+      </c>
+      <c r="Q22">
+        <v>0.002457495081222222</v>
+      </c>
+      <c r="R22">
+        <v>0.022117455731</v>
+      </c>
+      <c r="S22">
+        <v>6.766838909397304E-06</v>
+      </c>
+      <c r="T22">
+        <v>8.815071467136858E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.143093</v>
+      </c>
+      <c r="I23">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="J23">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.143093</v>
+      </c>
+      <c r="O23">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="P23">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="Q23">
+        <v>0.002275067405444444</v>
+      </c>
+      <c r="R23">
+        <v>0.020475606649</v>
+      </c>
+      <c r="S23">
+        <v>6.264514935674422E-06</v>
+      </c>
+      <c r="T23">
+        <v>8.160700676386384E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.143093</v>
+      </c>
+      <c r="I24">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="J24">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.414919</v>
+      </c>
+      <c r="N24">
+        <v>1.244757</v>
+      </c>
+      <c r="O24">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="P24">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="Q24">
+        <v>0.01979066815566667</v>
+      </c>
+      <c r="R24">
+        <v>0.178116013401</v>
+      </c>
+      <c r="S24">
+        <v>5.449462110505257E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.098942150794719E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.143093</v>
+      </c>
+      <c r="I25">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="J25">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.7278225</v>
+      </c>
+      <c r="N25">
+        <v>13.455645</v>
+      </c>
+      <c r="O25">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="P25">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="Q25">
+        <v>0.3209014349975</v>
+      </c>
+      <c r="R25">
+        <v>1.925408609985</v>
+      </c>
+      <c r="S25">
+        <v>0.0008836185809749554</v>
+      </c>
+      <c r="T25">
+        <v>0.0007673854853327212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.414919</v>
+      </c>
+      <c r="H26">
+        <v>1.244757</v>
+      </c>
+      <c r="I26">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="J26">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.3526105</v>
+      </c>
+      <c r="N26">
+        <v>0.705221</v>
+      </c>
+      <c r="O26">
+        <v>0.01850298645190735</v>
+      </c>
+      <c r="P26">
+        <v>0.01407895989051319</v>
+      </c>
+      <c r="Q26">
+        <v>0.1463047960495</v>
+      </c>
+      <c r="R26">
+        <v>0.8778287762970001</v>
+      </c>
+      <c r="S26">
+        <v>0.0004028577693212765</v>
+      </c>
+      <c r="T26">
+        <v>0.0003498649886804807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.414919</v>
+      </c>
+      <c r="H27">
+        <v>1.244757</v>
+      </c>
+      <c r="I27">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="J27">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>11.46237866666667</v>
+      </c>
+      <c r="N27">
+        <v>34.387136</v>
+      </c>
+      <c r="O27">
+        <v>0.6014802088308917</v>
+      </c>
+      <c r="P27">
+        <v>0.6865012648426838</v>
+      </c>
+      <c r="Q27">
+        <v>4.755958693994667</v>
+      </c>
+      <c r="R27">
+        <v>42.803628245952</v>
+      </c>
+      <c r="S27">
+        <v>0.0130957765034482</v>
+      </c>
+      <c r="T27">
+        <v>0.01705969468775625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.414919</v>
+      </c>
+      <c r="H28">
+        <v>1.244757</v>
+      </c>
+      <c r="I28">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="J28">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.154567</v>
+      </c>
+      <c r="O28">
+        <v>0.002703597980313465</v>
+      </c>
+      <c r="P28">
+        <v>0.003085759773740364</v>
+      </c>
+      <c r="Q28">
+        <v>0.02137759502433334</v>
+      </c>
+      <c r="R28">
+        <v>0.192398355219</v>
+      </c>
+      <c r="S28">
+        <v>5.886430573364637E-05</v>
+      </c>
+      <c r="T28">
+        <v>7.668175182726531E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.414919</v>
+      </c>
+      <c r="H29">
+        <v>1.244757</v>
+      </c>
+      <c r="I29">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="J29">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.143093</v>
+      </c>
+      <c r="O29">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="P29">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="Q29">
+        <v>0.01979066815566667</v>
+      </c>
+      <c r="R29">
+        <v>0.178116013401</v>
+      </c>
+      <c r="S29">
+        <v>5.449462110505257E-05</v>
+      </c>
+      <c r="T29">
+        <v>7.098942150794719E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.414919</v>
+      </c>
+      <c r="H30">
+        <v>1.244757</v>
+      </c>
+      <c r="I30">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="J30">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.414919</v>
+      </c>
+      <c r="N30">
+        <v>1.244757</v>
+      </c>
+      <c r="O30">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="P30">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="Q30">
+        <v>0.172157776561</v>
+      </c>
+      <c r="R30">
+        <v>1.549419989049</v>
+      </c>
+      <c r="S30">
+        <v>0.0004740452788246939</v>
+      </c>
+      <c r="T30">
+        <v>0.0006175325092629817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.414919</v>
+      </c>
+      <c r="H31">
+        <v>1.244757</v>
+      </c>
+      <c r="I31">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="J31">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>6.7278225</v>
+      </c>
+      <c r="N31">
+        <v>13.455645</v>
+      </c>
+      <c r="O31">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="P31">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="Q31">
+        <v>2.7915013838775</v>
+      </c>
+      <c r="R31">
+        <v>16.749008303265</v>
+      </c>
+      <c r="S31">
+        <v>0.007686542416460922</v>
+      </c>
+      <c r="T31">
+        <v>0.00667543803377036</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>6.7278225</v>
+      </c>
+      <c r="H32">
+        <v>13.455645</v>
+      </c>
+      <c r="I32">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="J32">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.3526105</v>
+      </c>
+      <c r="N32">
+        <v>0.705221</v>
+      </c>
+      <c r="O32">
+        <v>0.01850298645190735</v>
+      </c>
+      <c r="P32">
+        <v>0.01407895989051319</v>
+      </c>
+      <c r="Q32">
+        <v>2.37230085563625</v>
+      </c>
+      <c r="R32">
+        <v>9.489203422545</v>
+      </c>
+      <c r="S32">
+        <v>0.006532252234145685</v>
+      </c>
+      <c r="T32">
+        <v>0.003781990449231108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>6.7278225</v>
+      </c>
+      <c r="H33">
+        <v>13.455645</v>
+      </c>
+      <c r="I33">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="J33">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>11.46237866666667</v>
+      </c>
+      <c r="N33">
+        <v>34.387136</v>
+      </c>
+      <c r="O33">
+        <v>0.6014802088308917</v>
+      </c>
+      <c r="P33">
+        <v>0.6865012648426838</v>
+      </c>
+      <c r="Q33">
+        <v>77.11684909712</v>
+      </c>
+      <c r="R33">
+        <v>462.70109458272</v>
+      </c>
+      <c r="S33">
+        <v>0.2123452042805225</v>
+      </c>
+      <c r="T33">
+        <v>0.1844128577118538</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>6.7278225</v>
+      </c>
+      <c r="H34">
+        <v>13.455645</v>
+      </c>
+      <c r="I34">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="J34">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.154567</v>
+      </c>
+      <c r="O34">
+        <v>0.002703597980313465</v>
+      </c>
+      <c r="P34">
+        <v>0.003085759773740364</v>
+      </c>
+      <c r="Q34">
+        <v>0.3466331134525</v>
+      </c>
+      <c r="R34">
+        <v>2.079798680715</v>
+      </c>
+      <c r="S34">
+        <v>0.0009544720790364024</v>
+      </c>
+      <c r="T34">
+        <v>0.0008289187613050445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>6.7278225</v>
+      </c>
+      <c r="H35">
+        <v>13.455645</v>
+      </c>
+      <c r="I35">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="J35">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.143093</v>
+      </c>
+      <c r="O35">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="P35">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="Q35">
+        <v>0.3209014349975</v>
+      </c>
+      <c r="R35">
+        <v>1.925408609985</v>
+      </c>
+      <c r="S35">
+        <v>0.0008836185809749554</v>
+      </c>
+      <c r="T35">
+        <v>0.0007673854853327212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>6.7278225</v>
+      </c>
+      <c r="H36">
+        <v>13.455645</v>
+      </c>
+      <c r="I36">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="J36">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.414919</v>
+      </c>
+      <c r="N36">
+        <v>1.244757</v>
+      </c>
+      <c r="O36">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="P36">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="Q36">
+        <v>2.7915013838775</v>
+      </c>
+      <c r="R36">
+        <v>16.749008303265</v>
+      </c>
+      <c r="S36">
+        <v>0.007686542416460922</v>
+      </c>
+      <c r="T36">
+        <v>0.00667543803377036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>6.7278225</v>
+      </c>
+      <c r="H37">
+        <v>13.455645</v>
+      </c>
+      <c r="I37">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="J37">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>6.7278225</v>
+      </c>
+      <c r="N37">
+        <v>13.455645</v>
+      </c>
+      <c r="O37">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="P37">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="Q37">
+        <v>45.26359559150625</v>
+      </c>
+      <c r="R37">
+        <v>181.054382366025</v>
+      </c>
+      <c r="S37">
+        <v>0.124635634947231</v>
+      </c>
+      <c r="T37">
+        <v>0.07216052964708129</v>
       </c>
     </row>
   </sheetData>
